--- a/Task/PRACTIC/number_10/Benchmarks.xlsx
+++ b/Task/PRACTIC/number_10/Benchmarks.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\79165\PycharmProjects\s22\Task\PRACTIC\number_10\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A29E02-6C0E-4CE7-B310-4B9680ED42FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="28695" windowHeight="12540"/>
+    <workbookView xWindow="17685" yWindow="75" windowWidth="11985" windowHeight="10605" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
   <si>
     <t>Scikit Compressor</t>
   </si>
@@ -49,13 +55,97 @@
   </si>
   <si>
     <t>Пример из пяти разных изображений приведен в папке под названием "Image Examples"</t>
+  </si>
+  <si>
+    <t>6.45</t>
+  </si>
+  <si>
+    <t>5.5</t>
+  </si>
+  <si>
+    <t>3.6</t>
+  </si>
+  <si>
+    <t>7.8</t>
+  </si>
+  <si>
+    <t>6.4</t>
+  </si>
+  <si>
+    <t>3.7</t>
+  </si>
+  <si>
+    <t>10.3</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>3.86</t>
+  </si>
+  <si>
+    <t>15.4</t>
+  </si>
+  <si>
+    <t>11.5</t>
+  </si>
+  <si>
+    <t>4.2</t>
+  </si>
+  <si>
+    <t>17.6</t>
+  </si>
+  <si>
+    <t>18.4</t>
+  </si>
+  <si>
+    <t>19.2</t>
+  </si>
+  <si>
+    <t>23.4</t>
+  </si>
+  <si>
+    <t>32.2</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>47.8</t>
+  </si>
+  <si>
+    <t>32.7</t>
+  </si>
+  <si>
+    <t>6,8</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>34.5</t>
+  </si>
+  <si>
+    <t>6.9</t>
+  </si>
+  <si>
+    <t>45.2</t>
+  </si>
+  <si>
+    <t>36.7</t>
+  </si>
+  <si>
+    <t>7.4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,24 +220,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -155,12 +230,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -207,7 +305,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -239,9 +337,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -273,6 +389,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -448,634 +582,610 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="33.85546875" customWidth="1"/>
     <col min="3" max="3" width="25.5703125" customWidth="1"/>
-    <col min="4" max="4" width="51.85546875" customWidth="1"/>
-    <col min="5" max="5" width="36.140625" customWidth="1"/>
+    <col min="4" max="4" width="26.140625" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
     <col min="6" max="6" width="52.5703125" customWidth="1"/>
     <col min="7" max="7" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="4"/>
+      <c r="E2" s="7"/>
       <c r="F2" s="8"/>
-      <c r="G2" s="6"/>
-    </row>
-    <row r="3" spans="2:7">
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="3" t="s">
+      <c r="G2" s="9"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="7"/>
-    </row>
-    <row r="4" spans="2:7">
-      <c r="B4" s="3">
+      <c r="F3" s="4"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="2">
         <v>5</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>2</v>
       </c>
-      <c r="D4" s="3">
-        <v>182</v>
-      </c>
-      <c r="E4" s="3">
-        <v>21.93</v>
+      <c r="D4" s="2">
+        <v>225</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>23</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="2:7">
-      <c r="B5" s="3">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="2">
         <v>5</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>3</v>
       </c>
-      <c r="D5" s="3">
-        <v>223</v>
-      </c>
-      <c r="E5" s="3">
-        <v>23</v>
+      <c r="D5" s="2">
+        <v>368</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>24</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="2:7">
-      <c r="B6" s="3">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="2">
         <v>5</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>4</v>
       </c>
-      <c r="D6" s="3">
-        <v>259</v>
-      </c>
-      <c r="E6" s="3">
-        <v>23.24</v>
+      <c r="D6" s="2">
+        <v>383</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>25</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="2:7">
-      <c r="B7" s="3">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="2">
         <v>5</v>
       </c>
-      <c r="C7" s="3">
-        <v>8</v>
-      </c>
-      <c r="D7" s="3">
-        <v>282</v>
-      </c>
-      <c r="E7" s="3">
-        <v>28.5</v>
+      <c r="C7" s="2">
+        <v>8</v>
+      </c>
+      <c r="D7" s="2">
+        <v>458</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>26</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="2:7">
-      <c r="B8" s="3">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="2">
         <v>5</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>16</v>
       </c>
-      <c r="D8" s="3">
-        <v>292</v>
-      </c>
-      <c r="E8" s="3">
-        <v>38.630000000000003</v>
+      <c r="D8" s="2">
+        <v>477</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="2:7">
-      <c r="B9" s="3">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="2">
         <v>5</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>32</v>
       </c>
-      <c r="D9" s="3">
-        <v>287</v>
-      </c>
-      <c r="E9" s="3">
-        <v>58.44</v>
+      <c r="D9" s="2">
+        <v>508</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="2:7">
-      <c r="B10" s="3">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="2">
         <v>5</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>64</v>
       </c>
-      <c r="D10" s="3">
-        <v>287</v>
-      </c>
-      <c r="E10" s="3">
-        <v>124.87</v>
+      <c r="D10" s="2">
+        <v>514</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>29</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="2:7">
-      <c r="B11" s="3">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="2">
         <v>5</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>128</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="3" t="s">
+      <c r="D11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="10" t="s">
         <v>8</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="2:7">
-      <c r="B12" s="3">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="2">
         <v>5</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>256</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="3" t="s">
+      <c r="D12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="10" t="s">
         <v>8</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="2:7">
-      <c r="B13" s="2" t="s">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E13" s="2"/>
+      <c r="E13" s="6"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="2:7">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="3" t="s">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="2:7">
-      <c r="B15" s="3">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="2">
         <v>15</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="2">
         <v>2</v>
       </c>
-      <c r="D15" s="3">
-        <v>177</v>
-      </c>
-      <c r="E15" s="3">
-        <v>50.83</v>
+      <c r="D15" s="2">
+        <v>192</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>30</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="2:7">
-      <c r="B16" s="3">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="2">
         <v>10</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="2">
         <v>2</v>
       </c>
-      <c r="D16" s="3">
-        <v>177</v>
-      </c>
-      <c r="E16" s="3">
-        <v>35.29</v>
+      <c r="D16" s="2">
+        <v>192</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="2:7">
-      <c r="B17" s="3">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="2">
         <v>1</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="2">
         <v>2</v>
       </c>
-      <c r="D17" s="3">
-        <v>183</v>
-      </c>
-      <c r="E17" s="3">
-        <v>7.18</v>
+      <c r="D17" s="2">
+        <v>399</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>32</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="2:7">
-      <c r="B18" s="3">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="2">
         <v>15</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="2">
         <v>3</v>
       </c>
-      <c r="D18" s="3">
-        <v>243</v>
-      </c>
-      <c r="E18" s="3">
-        <v>54.18</v>
+      <c r="D18" s="2">
+        <v>371</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="2:7">
-      <c r="B19" s="3">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="2">
         <v>10</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="2">
         <v>3</v>
       </c>
-      <c r="D19" s="3">
-        <v>251</v>
-      </c>
-      <c r="E19" s="3">
-        <v>37.270000000000003</v>
+      <c r="D19" s="2">
+        <v>212</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>34</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="2:7">
-      <c r="B20" s="3">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="2">
         <v>1</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="2">
         <v>3</v>
       </c>
-      <c r="D20" s="3">
-        <v>244</v>
-      </c>
-      <c r="E20" s="3">
-        <v>7.47</v>
+      <c r="D20" s="2">
+        <v>214</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="2:7">
-      <c r="B21" s="3">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="2">
         <v>15</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="2">
         <v>4</v>
       </c>
-      <c r="D21" s="3">
-        <v>270</v>
-      </c>
-      <c r="E21" s="3">
-        <v>56.8</v>
+      <c r="D21" s="2">
+        <v>452</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>36</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="2:7">
-      <c r="B22" s="3">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="2">
         <v>10</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="2">
         <v>4</v>
       </c>
-      <c r="D22" s="3">
-        <v>271</v>
-      </c>
-      <c r="E22" s="3">
-        <v>40.07</v>
+      <c r="D22" s="2">
+        <v>456</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>37</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="2:7">
-      <c r="B23" s="3">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="2">
         <v>1</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="2">
         <v>4</v>
       </c>
-      <c r="D23" s="3">
-        <v>256</v>
-      </c>
-      <c r="E23" s="3">
-        <v>7.62</v>
+      <c r="D23" s="2">
+        <v>467</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>38</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="2:7">
-      <c r="B24" s="3">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="2">
         <v>15</v>
       </c>
-      <c r="C24" s="3">
-        <v>8</v>
-      </c>
-      <c r="D24" s="3">
-        <v>289</v>
-      </c>
-      <c r="E24" s="3">
-        <v>73.12</v>
+      <c r="C24" s="2">
+        <v>8</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="10" t="s">
+        <v>11</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="2:7">
-      <c r="B25" s="3">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="2">
         <v>10</v>
       </c>
-      <c r="C25" s="3">
-        <v>8</v>
-      </c>
-      <c r="D25" s="3">
-        <v>285</v>
-      </c>
-      <c r="E25" s="3">
-        <v>49.2</v>
+      <c r="C25" s="2">
+        <v>8</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="2:7">
-      <c r="B26" s="3">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="2">
         <v>1</v>
       </c>
-      <c r="C26" s="3">
-        <v>8</v>
-      </c>
-      <c r="D26" s="3">
-        <v>277</v>
-      </c>
-      <c r="E26" s="3">
-        <v>8.73</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7">
-      <c r="B27" s="3">
+      <c r="C26" s="2">
+        <v>8</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="2">
         <v>15</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="2">
         <v>16</v>
       </c>
-      <c r="D27" s="3">
-        <v>288</v>
-      </c>
-      <c r="E27" s="3">
-        <v>103.04</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7">
-      <c r="B28" s="3">
+      <c r="D27" s="2"/>
+      <c r="E27" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="2">
         <v>10</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="2">
         <v>16</v>
       </c>
-      <c r="D28" s="3">
-        <v>286</v>
-      </c>
-      <c r="E28" s="3">
-        <v>69.66</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7">
-      <c r="B29" s="3">
+      <c r="D28" s="2"/>
+      <c r="E28" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="2">
         <v>1</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="2">
         <v>16</v>
       </c>
-      <c r="D29" s="3">
-        <v>283</v>
-      </c>
-      <c r="E29" s="3">
-        <v>10.85</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7">
-      <c r="B30" s="3">
+      <c r="D29" s="2"/>
+      <c r="E29" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="2">
         <v>15</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="2">
         <v>32</v>
       </c>
-      <c r="D30" s="3">
-        <v>289</v>
-      </c>
-      <c r="E30" s="3">
-        <v>172.79</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7">
-      <c r="B31" s="3">
+      <c r="D30" s="2"/>
+      <c r="E30" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="2">
         <v>10</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="2">
         <v>32</v>
       </c>
-      <c r="D31" s="3">
-        <v>286</v>
-      </c>
-      <c r="E31" s="3">
-        <v>115.79</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7">
-      <c r="B32" s="3">
+      <c r="D31" s="2"/>
+      <c r="E31" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="2">
         <v>1</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="2">
         <v>32</v>
       </c>
-      <c r="D32" s="3">
-        <v>293</v>
-      </c>
-      <c r="E32" s="3">
-        <v>15.88</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5">
-      <c r="B33" s="3">
+      <c r="D32" s="2"/>
+      <c r="E32" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="2">
         <v>15</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="2">
         <v>64</v>
       </c>
-      <c r="D33" s="3">
-        <v>288</v>
-      </c>
-      <c r="E33" s="3">
-        <v>296.8</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5">
-      <c r="B34" s="3">
+      <c r="D33" s="2"/>
+      <c r="E33" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="2">
         <v>10</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="2">
         <v>64</v>
       </c>
-      <c r="D34" s="3">
-        <v>288</v>
-      </c>
-      <c r="E34" s="3">
-        <v>189.18</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5">
-      <c r="B35" s="3">
+      <c r="D34" s="2"/>
+      <c r="E34" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" s="2">
         <v>1</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="2">
         <v>64</v>
       </c>
-      <c r="D35" s="3">
-        <v>285</v>
-      </c>
-      <c r="E35" s="3">
-        <v>24.51</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5">
-      <c r="B36" s="3">
+      <c r="D35" s="2"/>
+      <c r="E35" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" s="2">
         <v>15</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36" s="2">
         <v>128</v>
       </c>
-      <c r="D36" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5">
-      <c r="B37" s="3">
+      <c r="D36" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37" s="2">
         <v>10</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37" s="2">
         <v>128</v>
       </c>
-      <c r="D37" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5">
-      <c r="B38" s="3">
+      <c r="D37" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B38" s="2">
         <v>1</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C38" s="2">
         <v>128</v>
       </c>
-      <c r="D38" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5">
-      <c r="B39" s="3">
+      <c r="D38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B39" s="2">
         <v>15</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C39" s="2">
         <v>256</v>
       </c>
-      <c r="D39" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5">
-      <c r="B40" s="3">
+      <c r="D39" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B40" s="2">
         <v>10</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40" s="2">
         <v>256</v>
       </c>
-      <c r="D40" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5">
-      <c r="B41" s="3">
+      <c r="D40" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B41" s="2">
         <v>1</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C41" s="2">
         <v>256</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5">
-      <c r="B42" s="10" t="s">
+      <c r="D41" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B42" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-    </row>
-    <row r="43" spans="2:5">
-      <c r="B43" s="10" t="s">
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B43" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -1090,28 +1200,29 @@
     <mergeCell ref="C13:C14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Task/PRACTIC/number_10/Benchmarks.xlsx
+++ b/Task/PRACTIC/number_10/Benchmarks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\79165\PycharmProjects\s22\Task\PRACTIC\number_10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A29E02-6C0E-4CE7-B310-4B9680ED42FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93A2FC33-246A-4943-A6B3-5EF1C6753EFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17685" yWindow="75" windowWidth="11985" windowHeight="10605" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,42 +57,6 @@
     <t>Пример из пяти разных изображений приведен в папке под названием "Image Examples"</t>
   </si>
   <si>
-    <t>6.45</t>
-  </si>
-  <si>
-    <t>5.5</t>
-  </si>
-  <si>
-    <t>3.6</t>
-  </si>
-  <si>
-    <t>7.8</t>
-  </si>
-  <si>
-    <t>6.4</t>
-  </si>
-  <si>
-    <t>3.7</t>
-  </si>
-  <si>
-    <t>10.3</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>3.86</t>
-  </si>
-  <si>
-    <t>15.4</t>
-  </si>
-  <si>
-    <t>11.5</t>
-  </si>
-  <si>
-    <t>4.2</t>
-  </si>
-  <si>
     <t>17.6</t>
   </si>
   <si>
@@ -139,6 +103,42 @@
   </si>
   <si>
     <t>7.4</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>8,2</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>13.6</t>
+  </si>
+  <si>
+    <t>242</t>
+  </si>
+  <si>
+    <t>163</t>
+  </si>
+  <si>
+    <t>21</t>
   </si>
 </sst>
 </file>
@@ -585,8 +585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="B21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -636,7 +636,7 @@
         <v>225</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -652,7 +652,7 @@
         <v>368</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -668,7 +668,7 @@
         <v>383</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -684,7 +684,7 @@
         <v>458</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -700,7 +700,7 @@
         <v>477</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -716,7 +716,7 @@
         <v>508</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -732,7 +732,7 @@
         <v>514</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -806,7 +806,7 @@
         <v>192</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -822,7 +822,7 @@
         <v>192</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -838,7 +838,7 @@
         <v>399</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -854,7 +854,7 @@
         <v>371</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -870,7 +870,7 @@
         <v>212</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -886,7 +886,7 @@
         <v>214</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -902,7 +902,7 @@
         <v>452</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -918,7 +918,7 @@
         <v>456</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -934,7 +934,7 @@
         <v>467</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
@@ -946,9 +946,11 @@
       <c r="C24" s="2">
         <v>8</v>
       </c>
-      <c r="D24" s="2"/>
+      <c r="D24" s="2">
+        <v>466</v>
+      </c>
       <c r="E24" s="10" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -960,9 +962,11 @@
       <c r="C25" s="2">
         <v>8</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="2">
+        <v>476</v>
+      </c>
       <c r="E25" s="10" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -974,9 +978,11 @@
       <c r="C26" s="2">
         <v>8</v>
       </c>
-      <c r="D26" s="2"/>
+      <c r="D26" s="2">
+        <v>492</v>
+      </c>
       <c r="E26" s="10" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
@@ -986,9 +992,11 @@
       <c r="C27" s="2">
         <v>16</v>
       </c>
-      <c r="D27" s="2"/>
+      <c r="D27" s="2">
+        <v>486</v>
+      </c>
       <c r="E27" s="10" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
@@ -998,9 +1006,11 @@
       <c r="C28" s="2">
         <v>16</v>
       </c>
-      <c r="D28" s="2"/>
+      <c r="D28" s="2">
+        <v>481</v>
+      </c>
       <c r="E28" s="10" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
@@ -1010,9 +1020,11 @@
       <c r="C29" s="2">
         <v>16</v>
       </c>
-      <c r="D29" s="2"/>
+      <c r="D29" s="2">
+        <v>481</v>
+      </c>
       <c r="E29" s="10" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
@@ -1022,9 +1034,11 @@
       <c r="C30" s="2">
         <v>32</v>
       </c>
-      <c r="D30" s="2"/>
+      <c r="D30" s="2">
+        <v>490</v>
+      </c>
       <c r="E30" s="10" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
@@ -1034,9 +1048,11 @@
       <c r="C31" s="2">
         <v>32</v>
       </c>
-      <c r="D31" s="2"/>
+      <c r="D31" s="2">
+        <v>502</v>
+      </c>
       <c r="E31" s="10" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
@@ -1046,9 +1062,11 @@
       <c r="C32" s="2">
         <v>32</v>
       </c>
-      <c r="D32" s="2"/>
+      <c r="D32" s="2">
+        <v>517</v>
+      </c>
       <c r="E32" s="10" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
@@ -1058,9 +1076,11 @@
       <c r="C33" s="2">
         <v>64</v>
       </c>
-      <c r="D33" s="2"/>
+      <c r="D33" s="2">
+        <v>511</v>
+      </c>
       <c r="E33" s="10" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
@@ -1070,9 +1090,11 @@
       <c r="C34" s="2">
         <v>64</v>
       </c>
-      <c r="D34" s="2"/>
+      <c r="D34" s="2">
+        <v>512</v>
+      </c>
       <c r="E34" s="10" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
@@ -1082,9 +1104,11 @@
       <c r="C35" s="2">
         <v>64</v>
       </c>
-      <c r="D35" s="2"/>
+      <c r="D35" s="2">
+        <v>503</v>
+      </c>
       <c r="E35" s="10" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
